--- a/일정 수립.xlsx
+++ b/일정 수립.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH_MOVIE\hh_movie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH MOVIE GIT\final-pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D27FC3C-CC50-4BBB-AF91-EEF827D04FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31207883-57D4-46D3-9748-DF901E9C77ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>20일(금) 오후</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,11 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                      일 자
-TASK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디어 회의 - 추천 알고리즘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,15 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>담당자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이준호, 
-조영훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기능 구현 - 로그인, 로그아웃, 회원가입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,10 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최종 점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>보완 및 피드백</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,6 +150,15 @@
   </si>
   <si>
     <t>기능 구현 - 영화 CRUD, admin 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 점검(예상 마감 시간 : 26일(목) 오전)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                               일 자
+ TASK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -200,14 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -216,15 +199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +254,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -524,53 +529,202 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="double">
+      <right style="thick">
         <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
       </right>
       <top style="thick">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
       <right style="double">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,23 +734,10 @@
       <right style="thick">
         <color rgb="FFFF0000"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -606,195 +747,9 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -806,180 +761,168 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,376 +1238,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F97D1F-4FDA-49D9-9363-9E4FD650D258}">
-  <dimension ref="B1:L23"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="20.625" customWidth="1"/>
+    <col min="3" max="11" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="55.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="25"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="35"/>
-    </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="56" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-    </row>
-    <row r="18" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="49"/>
-    </row>
-    <row r="23" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C23"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/일정 수립.xlsx
+++ b/일정 수립.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nak36\Desktop\HH MOVIE GIT\final-pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31207883-57D4-46D3-9748-DF901E9C77ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DD5C31-8A8D-4F4E-86BF-5829E81090AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BACCE05D-5B95-47C6-BFA4-DC4D57C4278F}"/>
   </bookViews>
@@ -1241,7 +1241,10 @@
   <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
